--- a/TABLAS EXCEL/Datos_naranjas.xlsx
+++ b/TABLAS EXCEL/Datos_naranjas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yinel\OneDrive\Desktop\Cuarto Semestre\Base de datos\DB\TABLAS EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4937a6810e523561/Documentos/GitHub/DB/TABLAS EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF61860-3D97-4216-B96B-866BE4B5776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{2DF61860-3D97-4216-B96B-866BE4B5776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC8BC38-EAC2-4689-B56F-2A842E035B4F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ubicacion" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Pais" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ciudad!$F$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ubicacion!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,12 +27,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="397">
   <si>
     <t>Ciudad</t>
   </si>
@@ -594,12 +606,6 @@
     <t>NARIÑO</t>
   </si>
   <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>ANT</t>
-  </si>
-  <si>
     <t>SUCRE</t>
   </si>
   <si>
@@ -1177,13 +1183,64 @@
   </si>
   <si>
     <t>Id_Ciudad</t>
+  </si>
+  <si>
+    <t>Antioquia</t>
+  </si>
+  <si>
+    <t>SAN ANDRES DE CUERQUIA</t>
+  </si>
+  <si>
+    <t>ITAGUI</t>
+  </si>
+  <si>
+    <t>SOLEDAD</t>
+  </si>
+  <si>
+    <t>EL CERRITO</t>
+  </si>
+  <si>
+    <t>BUCARASICA</t>
+  </si>
+  <si>
+    <t>CAPITANEJO</t>
+  </si>
+  <si>
+    <t>TULUA</t>
+  </si>
+  <si>
+    <t>GUACA</t>
+  </si>
+  <si>
+    <t>MELGAR</t>
+  </si>
+  <si>
+    <t>FRESNO</t>
+  </si>
+  <si>
+    <t>MANAURE</t>
+  </si>
+  <si>
+    <t>LIBANO</t>
+  </si>
+  <si>
+    <t>LA CEJA</t>
+  </si>
+  <si>
+    <t>MEDELLIN</t>
+  </si>
+  <si>
+    <t>IBAGUE</t>
+  </si>
+  <si>
+    <t>Bagaces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1198,6 +1255,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1220,9 +1283,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,6 +1331,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,745 +1602,745 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScale="82" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="26.86328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>203</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>205</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>206</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>207</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>208</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>209</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>210</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>211</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>212</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>213</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>300</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>214</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>215</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>216</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>217</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>218</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>219</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>306</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>220</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>221</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>222</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>223</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>224</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>225</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>226</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>227</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>229</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>230</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>231</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>232</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>233</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>234</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>235</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>236</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>237</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>238</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>239</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>240</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>241</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>242</v>
       </c>
-      <c r="B41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="B44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>243</v>
       </c>
-      <c r="B42" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>244</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>245</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>246</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>247</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>248</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>249</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>250</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>251</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>252</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>253</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>254</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>255</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>256</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>257</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>258</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>259</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>260</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>261</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>262</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>263</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>264</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>265</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>266</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>267</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>268</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>269</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>270</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>271</v>
       </c>
-      <c r="B71" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="B74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>272</v>
       </c>
-      <c r="B72" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>379</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>273</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>274</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>275</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>276</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>277</v>
       </c>
-      <c r="B78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="B81" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>278</v>
       </c>
-      <c r="B79" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>279</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>280</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>281</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>282</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>283</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>284</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>285</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>286</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>287</v>
       </c>
-      <c r="B89" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>288</v>
-      </c>
-      <c r="B90" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>289</v>
-      </c>
       <c r="B91" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2282,29 +2351,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2314,8 +2389,19 @@
       <c r="C2">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" s="2"/>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"'"&amp;G2&amp;"',"</f>
+        <v>'BOGOTA',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2325,8 +2411,18 @@
       <c r="C3">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">"'"&amp;G3&amp;"',"</f>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2336,8 +2432,18 @@
       <c r="C4">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2347,8 +2453,18 @@
       <c r="C5">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2358,8 +2474,18 @@
       <c r="C6">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2369,8 +2495,18 @@
       <c r="C7">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2380,8 +2516,18 @@
       <c r="C8">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>'RISARALDA',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2391,8 +2537,18 @@
       <c r="C9">
         <v>177</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2402,8 +2558,18 @@
       <c r="C10">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>'QUINDIO',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2413,8 +2579,18 @@
       <c r="C11">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2424,8 +2600,18 @@
       <c r="C12">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>'Guanacaste',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2435,8 +2621,18 @@
       <c r="C13">
         <v>181</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2446,8 +2642,18 @@
       <c r="C14">
         <v>182</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>'SANTANDER',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2457,8 +2663,18 @@
       <c r="C15">
         <v>183</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>'ATLANTICO',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2468,8 +2684,18 @@
       <c r="C16">
         <v>184</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2479,8 +2705,18 @@
       <c r="C17">
         <v>185</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2490,8 +2726,18 @@
       <c r="C18">
         <v>186</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>'BOGOTA',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2501,8 +2747,18 @@
       <c r="C19">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>'SANTANDER',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2512,8 +2768,18 @@
       <c r="C20">
         <v>188</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2523,8 +2789,18 @@
       <c r="C21">
         <v>189</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2534,8 +2810,18 @@
       <c r="C22">
         <v>190</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2545,8 +2831,18 @@
       <c r="C23">
         <v>191</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2556,8 +2852,18 @@
       <c r="C24">
         <v>192</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2567,8 +2873,18 @@
       <c r="C25">
         <v>193</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2578,8 +2894,18 @@
       <c r="C26">
         <v>194</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2589,8 +2915,18 @@
       <c r="C27">
         <v>195</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>'QUINDIO',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2600,1181 +2936,2852 @@
       <c r="C28">
         <v>196</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>'CAUCA',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>386</v>
+      </c>
+      <c r="G37" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>'BOLIVAR',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>'Panamá',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>'Panamá',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" t="s">
+        <v>174</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>188</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>182</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>'RISARALDA',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" t="s">
+        <v>181</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>'QUINDIO',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" t="s">
+        <v>172</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>'Panamá',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" t="s">
+        <v>140</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>'CORTES',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>173</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>'Panamá',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>'Panamá',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>174</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F58" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" t="s">
+        <v>173</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>172</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>174</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" t="s">
+        <v>174</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" t="s">
+        <v>172</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>172</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>173</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
+        <v>119</v>
+      </c>
+      <c r="G65" t="s">
+        <v>183</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>'SANTANDER',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" t="s">
+        <v>183</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>'SANTANDER',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>173</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J130" si="1">"'"&amp;G67&amp;"',"</f>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F68" t="s">
+        <v>390</v>
+      </c>
+      <c r="G68" t="s">
+        <v>172</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F69" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" t="s">
+        <v>188</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>'ATLANTICO',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" t="s">
+        <v>175</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>'HUILA',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" t="s">
+        <v>175</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="1"/>
+        <v>'HUILA',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F73" t="s">
+        <v>166</v>
+      </c>
+      <c r="G73" t="s">
+        <v>188</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F74" t="s">
+        <v>145</v>
+      </c>
+      <c r="G74" t="s">
+        <v>183</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>'SANTANDER',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s">
+        <v>174</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F76" t="s">
+        <v>388</v>
+      </c>
+      <c r="G76" t="s">
+        <v>173</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F77" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" t="s">
+        <v>173</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s">
+        <v>173</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F79" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" t="s">
+        <v>172</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>'Panamá',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
+        <v>185</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>'Guanacaste',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F82" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" t="s">
+        <v>172</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F83" t="s">
+        <v>135</v>
+      </c>
+      <c r="G83" t="s">
+        <v>172</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>172</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F85" t="s">
+        <v>395</v>
+      </c>
+      <c r="G85" t="s">
+        <v>172</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F86" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86" t="s">
+        <v>172</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F87" t="s">
+        <v>382</v>
+      </c>
+      <c r="G87" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>173</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s">
+        <v>173</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F90" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" t="s">
+        <v>174</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F91" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" t="s">
+        <v>174</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F92" t="s">
+        <v>393</v>
+      </c>
+      <c r="G92" t="s">
+        <v>174</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G93" t="s">
+        <v>173</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F94" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" t="s">
+        <v>173</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F95" t="s">
+        <v>134</v>
+      </c>
+      <c r="G95" t="s">
+        <v>175</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="1"/>
+        <v>'HUILA',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G96" t="s">
+        <v>173</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F97" t="s">
+        <v>81</v>
+      </c>
+      <c r="G97" t="s">
+        <v>173</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F98" t="s">
+        <v>73</v>
+      </c>
+      <c r="G98" t="s">
+        <v>173</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s">
+        <v>179</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="1"/>
+        <v>'ATLANTICO',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F100" t="s">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s">
+        <v>177</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="1"/>
+        <v>'CAUCA',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>172</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F102" t="s">
+        <v>392</v>
+      </c>
+      <c r="G102" t="s">
+        <v>172</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F103" t="s">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F104" t="s">
+        <v>128</v>
+      </c>
+      <c r="G104" t="s">
+        <v>188</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="1"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F105" t="s">
+        <v>168</v>
+      </c>
+      <c r="G105" t="s">
+        <v>193</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="1"/>
+        <v>'LA GUAJIRA',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F106" t="s">
+        <v>125</v>
+      </c>
+      <c r="G106" t="s">
+        <v>179</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="1"/>
+        <v>'ATLANTICO',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F107" t="s">
+        <v>391</v>
+      </c>
+      <c r="G107" t="s">
+        <v>172</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F108" t="s">
+        <v>391</v>
+      </c>
+      <c r="G108" t="s">
+        <v>186</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="1"/>
+        <v>'NARIÑO',</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F109" t="s">
+        <v>169</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="1"/>
+        <v>'CALDAS',</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F110" t="s">
+        <v>155</v>
+      </c>
+      <c r="G110" t="s">
+        <v>176</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="1"/>
+        <v>'BOLIVAR',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F111" t="s">
+        <v>107</v>
+      </c>
+      <c r="G111" t="s">
+        <v>172</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F112" t="s">
+        <v>394</v>
+      </c>
+      <c r="G112" t="s">
+        <v>174</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F113" t="s">
+        <v>141</v>
+      </c>
+      <c r="G113" t="s">
+        <v>380</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="1"/>
+        <v>'Antioquia',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F114" t="s">
+        <v>389</v>
+      </c>
+      <c r="G114" t="s">
+        <v>172</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F115" t="s">
+        <v>101</v>
+      </c>
+      <c r="G115" t="s">
+        <v>184</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="1"/>
+        <v>'CORDOBA',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F116" t="s">
+        <v>124</v>
+      </c>
+      <c r="G116" t="s">
+        <v>184</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="1"/>
+        <v>'CORDOBA',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" t="s">
+        <v>184</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="1"/>
+        <v>'CORDOBA',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F118" t="s">
+        <v>118</v>
+      </c>
+      <c r="G118" t="s">
+        <v>188</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="1"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F119" t="s">
+        <v>92</v>
+      </c>
+      <c r="G119" t="s">
+        <v>175</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="1"/>
+        <v>'HUILA',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
+        <v>165</v>
+      </c>
+      <c r="G120" t="s">
+        <v>188</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="1"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F121" t="s">
+        <v>139</v>
+      </c>
+      <c r="G121" t="s">
+        <v>173</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>173</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F123" t="s">
+        <v>106</v>
+      </c>
+      <c r="G123" t="s">
+        <v>174</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F124" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="1"/>
+        <v>'Panamá',</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F125" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s">
+        <v>174</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
+        <v>93</v>
+      </c>
+      <c r="G126" t="s">
+        <v>183</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="1"/>
+        <v>'SANTANDER',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G127" t="s">
+        <v>175</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="1"/>
+        <v>'HUILA',</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>177</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="1"/>
+        <v>'CAUCA',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F129" t="s">
+        <v>75</v>
+      </c>
+      <c r="G129" t="s">
+        <v>172</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F130" t="s">
+        <v>75</v>
+      </c>
+      <c r="G130" t="s">
+        <v>173</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" si="1"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F131" t="s">
+        <v>152</v>
+      </c>
+      <c r="G131" t="s">
+        <v>172</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" ref="J131:J190" si="2">"'"&amp;G131&amp;"',"</f>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G132" t="s">
+        <v>179</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" si="2"/>
+        <v>'ATLANTICO',</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F133" t="s">
+        <v>98</v>
+      </c>
+      <c r="G133" t="s">
+        <v>184</v>
+      </c>
+      <c r="J133" t="str">
+        <f t="shared" si="2"/>
+        <v>'CORDOBA',</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F134" t="s">
+        <v>116</v>
+      </c>
+      <c r="G134" t="s">
+        <v>172</v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" si="2"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F135" t="s">
+        <v>160</v>
+      </c>
+      <c r="G135" t="s">
+        <v>174</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F136" t="s">
+        <v>82</v>
+      </c>
+      <c r="G136" t="s">
+        <v>177</v>
+      </c>
+      <c r="J136" t="str">
+        <f t="shared" si="2"/>
+        <v>'CAUCA',</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F137" t="s">
+        <v>148</v>
+      </c>
+      <c r="G137" t="s">
+        <v>177</v>
+      </c>
+      <c r="J137" t="str">
+        <f t="shared" si="2"/>
+        <v>'CAUCA',</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F138" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s">
+        <v>181</v>
+      </c>
+      <c r="J138" t="str">
+        <f t="shared" si="2"/>
+        <v>'QUINDIO',</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F139" t="s">
+        <v>85</v>
+      </c>
+      <c r="G139" t="s">
+        <v>173</v>
+      </c>
+      <c r="J139" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F140" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" t="s">
+        <v>174</v>
+      </c>
+      <c r="J140" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F141" t="s">
+        <v>133</v>
+      </c>
+      <c r="G141" t="s">
+        <v>188</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" si="2"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F142" t="s">
+        <v>83</v>
+      </c>
+      <c r="G142" t="s">
+        <v>173</v>
+      </c>
+      <c r="J142" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F143" t="s">
+        <v>45</v>
+      </c>
+      <c r="G143" t="s">
+        <v>174</v>
+      </c>
+      <c r="J143" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>173</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F145" t="s">
+        <v>48</v>
+      </c>
+      <c r="G145" t="s">
+        <v>172</v>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" si="2"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F146" t="s">
+        <v>146</v>
+      </c>
+      <c r="G146" t="s">
+        <v>177</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="2"/>
+        <v>'CAUCA',</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" t="s">
+        <v>184</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" si="2"/>
+        <v>'CORDOBA',</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>174</v>
+      </c>
+      <c r="J148" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F149" t="s">
+        <v>130</v>
+      </c>
+      <c r="G149" t="s">
+        <v>184</v>
+      </c>
+      <c r="J149" t="str">
+        <f t="shared" si="2"/>
+        <v>'CORDOBA',</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F150" t="s">
+        <v>108</v>
+      </c>
+      <c r="G150" t="s">
+        <v>172</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" si="2"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F151" t="s">
+        <v>72</v>
+      </c>
+      <c r="G151" t="s">
+        <v>173</v>
+      </c>
+      <c r="J151" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F152" t="s">
+        <v>381</v>
+      </c>
+      <c r="G152" t="s">
+        <v>174</v>
+      </c>
+      <c r="J152" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F153" t="s">
+        <v>154</v>
+      </c>
+      <c r="G153" t="s">
+        <v>172</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" si="2"/>
+        <v>'TOLIMA',</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F154" t="s">
+        <v>87</v>
+      </c>
+      <c r="G154" t="s">
+        <v>174</v>
+      </c>
+      <c r="J154" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F155" t="s">
+        <v>111</v>
+      </c>
+      <c r="G155" t="s">
+        <v>183</v>
+      </c>
+      <c r="J155" t="str">
+        <f t="shared" si="2"/>
+        <v>'SANTANDER',</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F156" t="s">
+        <v>86</v>
+      </c>
+      <c r="G156" t="s">
+        <v>182</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" si="2"/>
+        <v>'RISARALDA',</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F157" t="s">
+        <v>100</v>
+      </c>
+      <c r="G157" t="s">
+        <v>174</v>
+      </c>
+      <c r="J157" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F158" t="s">
+        <v>76</v>
+      </c>
+      <c r="G158" t="s">
+        <v>174</v>
+      </c>
+      <c r="J158" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F159" t="s">
+        <v>67</v>
+      </c>
+      <c r="G159" t="s">
+        <v>174</v>
+      </c>
+      <c r="J159" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F160" t="s">
+        <v>66</v>
+      </c>
+      <c r="G160" t="s">
+        <v>174</v>
+      </c>
+      <c r="J160" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F161" t="s">
+        <v>89</v>
+      </c>
+      <c r="G161" t="s">
+        <v>189</v>
+      </c>
+      <c r="J161" t="str">
+        <f t="shared" si="2"/>
+        <v>'META',</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F162" t="s">
+        <v>150</v>
+      </c>
+      <c r="G162" t="s">
+        <v>173</v>
+      </c>
+      <c r="J162" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F163" t="s">
+        <v>136</v>
+      </c>
+      <c r="G163" t="s">
+        <v>140</v>
+      </c>
+      <c r="J163" t="str">
+        <f t="shared" si="2"/>
+        <v>'CORTES',</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F164" t="s">
+        <v>157</v>
+      </c>
+      <c r="G164" t="s">
+        <v>174</v>
+      </c>
+      <c r="J164" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F165" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" t="s">
+        <v>182</v>
+      </c>
+      <c r="J165" t="str">
+        <f t="shared" si="2"/>
+        <v>'RISARALDA',</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F166" t="s">
+        <v>120</v>
+      </c>
+      <c r="G166" t="s">
+        <v>177</v>
+      </c>
+      <c r="J166" t="str">
+        <f t="shared" si="2"/>
+        <v>'CAUCA',</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F167" t="s">
+        <v>80</v>
+      </c>
+      <c r="G167" t="s">
+        <v>173</v>
+      </c>
+      <c r="J167" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F168" t="s">
+        <v>25</v>
+      </c>
+      <c r="G168" t="s">
+        <v>173</v>
+      </c>
+      <c r="J168" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F169" t="s">
+        <v>138</v>
+      </c>
+      <c r="G169" t="s">
+        <v>192</v>
+      </c>
+      <c r="J169" t="str">
+        <f t="shared" si="2"/>
+        <v>'COMAYAGUA',</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F170" t="s">
+        <v>97</v>
+      </c>
+      <c r="G170" t="s">
+        <v>188</v>
+      </c>
+      <c r="J170" t="str">
+        <f t="shared" si="2"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>170</v>
       </c>
+      <c r="F171" t="s">
+        <v>159</v>
+      </c>
+      <c r="G171" t="s">
+        <v>191</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" si="2"/>
+        <v>'BOYACA',</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>383</v>
+      </c>
+      <c r="G172" t="s">
+        <v>179</v>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" si="2"/>
+        <v>'ATLANTICO',</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>102</v>
+      </c>
+      <c r="G173" t="s">
+        <v>177</v>
+      </c>
+      <c r="J173" t="str">
+        <f t="shared" si="2"/>
+        <v>'CAUCA',</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>137</v>
+      </c>
+      <c r="G174" t="s">
+        <v>185</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" si="2"/>
+        <v>'Guanacaste',</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>112</v>
+      </c>
+      <c r="G175" t="s">
+        <v>173</v>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>387</v>
+      </c>
+      <c r="G176" t="s">
+        <v>173</v>
+      </c>
+      <c r="J176" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="177" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>176</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" si="2"/>
+        <v>'BOLIVAR',</v>
+      </c>
+    </row>
+    <row r="178" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>99</v>
+      </c>
+      <c r="G178" t="s">
+        <v>174</v>
+      </c>
+      <c r="J178" t="str">
+        <f t="shared" si="2"/>
+        <v>'ANTIOQUIA',</v>
+      </c>
+    </row>
+    <row r="179" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>115</v>
+      </c>
+      <c r="G179" t="s">
+        <v>114</v>
+      </c>
+      <c r="J179" t="str">
+        <f t="shared" si="2"/>
+        <v>'CALDAS',</v>
+      </c>
+    </row>
+    <row r="180" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>162</v>
+      </c>
+      <c r="G180" t="s">
+        <v>193</v>
+      </c>
+      <c r="J180" t="str">
+        <f t="shared" si="2"/>
+        <v>'LA GUAJIRA',</v>
+      </c>
+    </row>
+    <row r="181" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181" t="s">
+        <v>33</v>
+      </c>
+      <c r="J181" t="str">
+        <f t="shared" si="2"/>
+        <v>'Panamá',</v>
+      </c>
+    </row>
+    <row r="182" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>65</v>
+      </c>
+      <c r="G182" t="s">
+        <v>182</v>
+      </c>
+      <c r="J182" t="str">
+        <f t="shared" si="2"/>
+        <v>'RISARALDA',</v>
+      </c>
+    </row>
+    <row r="183" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>94</v>
+      </c>
+      <c r="G183" t="s">
+        <v>114</v>
+      </c>
+      <c r="J183" t="str">
+        <f t="shared" si="2"/>
+        <v>'CALDAS',</v>
+      </c>
+    </row>
+    <row r="184" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F184" t="s">
+        <v>149</v>
+      </c>
+      <c r="G184" t="s">
+        <v>175</v>
+      </c>
+      <c r="J184" t="str">
+        <f t="shared" si="2"/>
+        <v>'HUILA',</v>
+      </c>
+    </row>
+    <row r="185" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F185" t="s">
+        <v>121</v>
+      </c>
+      <c r="G185" t="s">
+        <v>173</v>
+      </c>
+      <c r="J185" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="186" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>104</v>
+      </c>
+      <c r="G186" t="s">
+        <v>173</v>
+      </c>
+      <c r="J186" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="187" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" t="s">
+        <v>173</v>
+      </c>
+      <c r="J187" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="188" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
+      <c r="G188" t="s">
+        <v>173</v>
+      </c>
+      <c r="J188" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="189" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>53</v>
+      </c>
+      <c r="G189" t="s">
+        <v>173</v>
+      </c>
+      <c r="J189" t="str">
+        <f t="shared" si="2"/>
+        <v>'VALLE DEL CAUCA',</v>
+      </c>
+    </row>
+    <row r="190" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>57</v>
+      </c>
+      <c r="G190" t="s">
+        <v>188</v>
+      </c>
+      <c r="J190" t="str">
+        <f t="shared" si="2"/>
+        <v>'CUNDINAMARCA',</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:G1" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G197">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="16.9296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
         <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>170</v>
       </c>
@@ -3782,10 +5789,14 @@
         <v>172</v>
       </c>
       <c r="C2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"'" &amp; B2 &amp; "': '" &amp; A2 &amp; "',"</f>
+        <v>'TOLIMA': '170',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>171</v>
       </c>
@@ -3793,10 +5804,14 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E28" si="0">"'" &amp; B3 &amp; "': '" &amp; A3 &amp; "',"</f>
+        <v>'VALLE DEL CAUCA': '171',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>172</v>
       </c>
@@ -3804,10 +5819,14 @@
         <v>174</v>
       </c>
       <c r="C4">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA': '172',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>173</v>
       </c>
@@ -3815,191 +5834,359 @@
         <v>175</v>
       </c>
       <c r="C5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>'HUILA': '173',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <v>170</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>'BOLIVAR': '174',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C7">
+        <v>170</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>'CAUCA': '175',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <v>170</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>'CALDAS': '176',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <v>170</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>'N. DE SANTANDER': '177',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>178</v>
       </c>
       <c r="B10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <v>170</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>'ATLANTICO': '178',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>179</v>
       </c>
       <c r="B11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <v>170</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>'BOGOTA': '179',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>180</v>
       </c>
       <c r="B12" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <v>170</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>'QUINDIO': '180',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <v>170</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>'RISARALDA': '181',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <v>170</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>'SANTANDER': '182',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>183</v>
       </c>
       <c r="B15" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <v>170</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>'CORDOBA': '183',</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>184</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <v>188</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>'Guanacaste': '184',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>185</v>
       </c>
       <c r="B17" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <v>170</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>'NARIÑO': '185',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <v>170</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>'SUCRE': '188',</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <v>170</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>'CUNDINAMARCA': '189',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>591</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>'Panamá': '190',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21">
+        <v>591</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>'ANTIOQUIA': '191',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>189</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C22">
+        <v>170</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>'META': '192',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>193</v>
+      </c>
+      <c r="B23" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>190</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23">
+      <c r="C23">
+        <v>170</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>'CESAR': '193',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
         <v>191</v>
       </c>
-      <c r="B23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24">
+      <c r="C24">
+        <v>170</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>'BOYACA': '194',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25">
+        <v>340</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>'CORTES': '195',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26">
+        <v>591</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>'ATLANTICO': '196',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>197</v>
+      </c>
+      <c r="B27" t="s">
         <v>192</v>
       </c>
-      <c r="B24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25">
+      <c r="C27">
+        <v>340</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>'COMAYAGUA': '197',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s">
         <v>193</v>
       </c>
-      <c r="B25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>194</v>
-      </c>
-      <c r="B26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>195</v>
-      </c>
-      <c r="B27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>196</v>
-      </c>
-      <c r="B28" t="s">
-        <v>195</v>
+      <c r="C28">
+        <v>170</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>'LA GUAJIRA': '198',</v>
       </c>
     </row>
   </sheetData>
@@ -4012,52 +6199,53 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>198</v>
+        <v>591</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TABLAS EXCEL/Datos_naranjas.xlsx
+++ b/TABLAS EXCEL/Datos_naranjas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4937a6810e523561/Documentos/GitHub/DB/TABLAS EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{2DF61860-3D97-4216-B96B-866BE4B5776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC8BC38-EAC2-4689-B56F-2A842E035B4F}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{2DF61860-3D97-4216-B96B-866BE4B5776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{179B7461-521B-43F6-AEB1-0EC3C5B90527}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="398">
   <si>
     <t>Ciudad</t>
   </si>
@@ -1234,6 +1234,9 @@
   </si>
   <si>
     <t>Bagaces</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
   </si>
 </sst>
 </file>
@@ -1283,11 +1286,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5762,15 +5764,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -5781,7 +5783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>170</v>
       </c>
@@ -5795,8 +5797,11 @@
         <f>"'" &amp; B2 &amp; "': '" &amp; A2 &amp; "',"</f>
         <v>'TOLIMA': '170',</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>171</v>
       </c>
@@ -5810,8 +5815,9 @@
         <f t="shared" ref="E3:E28" si="0">"'" &amp; B3 &amp; "': '" &amp; A3 &amp; "',"</f>
         <v>'VALLE DEL CAUCA': '171',</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>172</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>'ANTIOQUIA': '172',</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>173</v>
       </c>
@@ -5841,7 +5847,7 @@
         <v>'HUILA': '173',</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>174</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>'BOLIVAR': '174',</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>175</v>
       </c>
@@ -5871,7 +5877,7 @@
         <v>'CAUCA': '175',</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>176</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v>'CALDAS': '176',</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>177</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>'N. DE SANTANDER': '177',</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>178</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>'ATLANTICO': '178',</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>179</v>
       </c>
@@ -5931,7 +5937,7 @@
         <v>'BOGOTA': '179',</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>180</v>
       </c>
@@ -5946,7 +5952,7 @@
         <v>'QUINDIO': '180',</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>181</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>'RISARALDA': '181',</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>182</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>'SANTANDER': '182',</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>183</v>
       </c>
@@ -5991,13 +5997,12 @@
         <f t="shared" si="0"/>
         <v>'CORDOBA': '183',</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>184</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>185</v>
       </c>
       <c r="C16">
@@ -6191,6 +6196,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
